--- a/biology/Médecine/1754_en_santé_et_médecine/1754_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1754_en_santé_et_médecine/1754_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1754 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aux États-Unis, fondation de l'université Columbia sous le nom de King’s College par une charte émanant du roi d'Angleterre George II : en 1767, y sera constitué le premier College of Physicians and Surgeons[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aux États-Unis, fondation de l'université Columbia sous le nom de King’s College par une charte émanant du roi d'Angleterre George II : en 1767, y sera constitué le premier College of Physicians and Surgeons.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>James Lind : Traité du scorbut. Chirurgien de la marine, il recommande fruits et légumes frais pour les marins[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>James Lind : Traité du scorbut. Chirurgien de la marine, il recommande fruits et légumes frais pour les marins.
 Samuel Auguste Tissot : L'Inoculation justifiée, Lausanne, Marc-Michel Bousquet, 1754, 1re éd., 179 p. (lire en ligne) au sujet de l'inoculation de la variole.</t>
         </is>
       </c>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille Copley de la Royal Society : William Lewis (1708-1781), chimiste et médecin anglais[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille Copley de la Royal Society : William Lewis (1708-1781), chimiste et médecin anglais.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,11 +620,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>26 janvier : Michel Chevreul (mort en 1845), médecin français, père du chimiste Michel-Eugène Chevreul (1786-1889).
 30 mars : Jean-François Pilâtre de Rozier (mort en 1785), apothicaire, chimiste, aérostier, physicien. Il est avec François Laurent d'Arlandes, l'un des deux premiers aéronautes de l'histoire.
-26 septembre : Joseph Louis Proust (mort en 1826), chimiste français, apothicaire gagnant-maîtrise[4] de l'hôpital de la Salpêtrière à Paris.
+26 septembre : Joseph Louis Proust (mort en 1826), chimiste français, apothicaire gagnant-maîtrise de l'hôpital de la Salpêtrière à Paris.
 24 octobre : Philipp Gottfried Gaertner (mort en 1825), botaniste et pharmacien allemand.
 28 octobre : Pierre-François Percy (mort en 1825), médecin français, chirurgien en chef des armées sous la Révolution et l’Empire.</t>
         </is>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1754_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1754_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16 février : Richard Mead (né en 1673), médecin britannique[5].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>16 février : Richard Mead (né en 1673), médecin britannique.</t>
         </is>
       </c>
     </row>
